--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4021161.027156125</v>
+        <v>4016856.722186683</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7127892.761180283</v>
+        <v>7127892.761180282</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225.2711185871635</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5639921989952</v>
+        <v>117.7790968557041</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="G2" t="n">
-        <v>263.5639921989952</v>
+        <v>12.83561175645086</v>
       </c>
       <c r="H2" t="n">
-        <v>263.5639921989952</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602293</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.745696862957772</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.20026557072393</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>129.1881822779731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8843116769506</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404774</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>83.21306730762825</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>147.0084755943827</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2792495146818396</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,52 +913,52 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.819206031588436</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>28.33708868093411</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>90.45969942975691</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>49.87925249820233</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.5299742853558</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>20.32598300632921</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W10" t="n">
-        <v>86.89370433611188</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>49.48749137895459</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>212.4076860934765</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>31.08121593769658</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="E19" t="n">
-        <v>19.51567534720898</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>51.89407438975599</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>135.3135037226523</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2374,13 +2374,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.03245356584297</v>
+        <v>35.19779014108477</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>33.82351723687751</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,10 +2845,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>114.2821160880071</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>33.01627976944152</v>
+        <v>83.06560892428034</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.68281686619609</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.7971820797012</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187867</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695543</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V38" t="n">
         <v>327.752258470135</v>
@@ -3571,7 +3571,7 @@
         <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>22.04658882052618</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3135037226503</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>87.73390848162458</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X43" t="n">
-        <v>110.2476086063444</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>219.3987923774523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>826.7093843645025</v>
+        <v>685.4716779720324</v>
       </c>
       <c r="C2" t="n">
-        <v>826.7093843645025</v>
+        <v>419.2454232255695</v>
       </c>
       <c r="D2" t="n">
-        <v>560.4831296180427</v>
+        <v>300.2766385228381</v>
       </c>
       <c r="E2" t="n">
-        <v>560.4831296180427</v>
+        <v>300.2766385228381</v>
       </c>
       <c r="F2" t="n">
-        <v>553.5376288688392</v>
+        <v>34.05038377637527</v>
       </c>
       <c r="G2" t="n">
-        <v>287.3113741223794</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591962</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591962</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="J2" t="n">
-        <v>49.1499466070089</v>
+        <v>50.19026732551647</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164364</v>
+        <v>142.9906865349475</v>
       </c>
       <c r="L2" t="n">
-        <v>293.9792536780644</v>
+        <v>295.01957439658</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173947</v>
+        <v>495.8504424173897</v>
       </c>
       <c r="N2" t="n">
         <v>704.5447722238173</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381085</v>
+        <v>888.2736487381133</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266313</v>
+        <v>1010.580993266321</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795981</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795981</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.255968795981</v>
+        <v>899.9120886341448</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.255968795981</v>
+        <v>685.4716779720324</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.255968795981</v>
+        <v>685.4716779720324</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.255968795981</v>
+        <v>685.4716779720324</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.255968795981</v>
+        <v>685.4716779720324</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.255968795981</v>
+        <v>685.4716779720324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.255968795981</v>
+        <v>685.4716779720324</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.3101616356172</v>
+        <v>511.1542998810293</v>
       </c>
       <c r="C3" t="n">
-        <v>326.8571323544901</v>
+        <v>336.7012705999023</v>
       </c>
       <c r="D3" t="n">
-        <v>326.8571323544901</v>
+        <v>336.7012705999023</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6196773490346</v>
+        <v>177.4638155944468</v>
       </c>
       <c r="F3" t="n">
-        <v>21.08511937591962</v>
+        <v>30.92925762133174</v>
       </c>
       <c r="G3" t="n">
-        <v>21.08511937591962</v>
+        <v>30.92925762133174</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591962</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591962</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591962</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957198</v>
+        <v>95.64621773957467</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2253570557011</v>
+        <v>339.088968453966</v>
       </c>
       <c r="M3" t="n">
-        <v>503.1537093327064</v>
+        <v>529.4967785168089</v>
       </c>
       <c r="N3" t="n">
-        <v>713.0096924675346</v>
+        <v>739.3527616516411</v>
       </c>
       <c r="O3" t="n">
-        <v>882.7671231430563</v>
+        <v>909.1101923271664</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280442</v>
+        <v>1026.022430280452</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795981</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.255968795981</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.255968795981</v>
+        <v>887.2211371066302</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.255968795981</v>
+        <v>887.2211371066302</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.255968795981</v>
+        <v>887.2211371066302</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.255968795981</v>
+        <v>887.2211371066302</v>
       </c>
       <c r="W3" t="n">
-        <v>800.0186120677793</v>
+        <v>887.2211371066302</v>
       </c>
       <c r="X3" t="n">
-        <v>800.0186120677793</v>
+        <v>679.3696369010974</v>
       </c>
       <c r="Y3" t="n">
-        <v>669.5254986556852</v>
+        <v>679.3696369010974</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.771770583155</v>
+        <v>503.3215151309271</v>
       </c>
       <c r="C4" t="n">
-        <v>339.771770583155</v>
+        <v>334.3853322030202</v>
       </c>
       <c r="D4" t="n">
-        <v>189.6551311708193</v>
+        <v>184.2686927906844</v>
       </c>
       <c r="E4" t="n">
-        <v>189.6551311708193</v>
+        <v>36.35559920829131</v>
       </c>
       <c r="F4" t="n">
-        <v>189.6551311708193</v>
+        <v>36.35559920829131</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591962</v>
+        <v>36.35559920829131</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591962</v>
+        <v>36.35559920829131</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591962</v>
+        <v>36.35559920829131</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591962</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953598</v>
+        <v>126.3272391953614</v>
       </c>
       <c r="L4" t="n">
-        <v>316.527353573527</v>
+        <v>316.5273535735305</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559499</v>
+        <v>527.4558292559553</v>
       </c>
       <c r="N4" t="n">
-        <v>738.803513656822</v>
+        <v>738.8035136568295</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005158</v>
+        <v>918.001012300525</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485816</v>
+        <v>1047.814747485827</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795981</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="R4" t="n">
-        <v>970.2023654549422</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="S4" t="n">
-        <v>970.2023654549422</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="T4" t="n">
-        <v>970.2023654549422</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="U4" t="n">
-        <v>970.2023654549422</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="V4" t="n">
-        <v>970.2023654549422</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="W4" t="n">
-        <v>970.2023654549422</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="X4" t="n">
-        <v>742.2128145569249</v>
+        <v>905.7625591046969</v>
       </c>
       <c r="Y4" t="n">
-        <v>521.4202354133947</v>
+        <v>684.9699799611668</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840.1393936243022</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>840.1393936243022</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>573.7617370571243</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>307.3840804899463</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407429</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4570,13 +4570,13 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>840.4214638411526</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X5" t="n">
-        <v>840.4214638411526</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.4214638411526</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287.7068141962812</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>287.7068141962812</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>287.7068141962812</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>128.4693591908257</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>128.4693591908257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>128.4693591908257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>27.98519730071487</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,10 +4649,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
         <v>529.4746963267547</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>691.074259448092</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>691.074259448092</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>455.9221512163493</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>455.9221512163493</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>455.9221512163493</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>455.9221512163493</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.631170629683</v>
+        <v>390.5330160718806</v>
       </c>
       <c r="C7" t="n">
-        <v>127.6949877017761</v>
+        <v>221.5968331439737</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>71.480193731638</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>71.480193731638</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
         <v>918.4699372075542</v>
@@ -4755,22 +4755,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>563.0088271968609</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>563.0088271968609</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>296.631170629683</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="X7" t="n">
-        <v>296.631170629683</v>
+        <v>572.1814809021204</v>
       </c>
       <c r="Y7" t="n">
-        <v>296.631170629683</v>
+        <v>572.1814809021204</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.9105847575083</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2541.808032434166</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2541.808032434166</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2288.226971698346</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>1957.164084354775</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>1604.395429084661</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.342820051861</v>
+        <v>1230.929670823581</v>
       </c>
       <c r="Y8" t="n">
-        <v>990.2034880760496</v>
+        <v>1230.929670823581</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>638.3296170496761</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>834.938065318854</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>666.0018823909471</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8852429786114</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1150.699034738196</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>1062.927616216871</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>834.938065318854</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>834.938065318854</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5044,7 +5044,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>599.6019060180513</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>599.6019060180513</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>452.7119585201409</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>285.5158592350209</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>143.8040280772189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239597</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2232.71308162133</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1943.637854965528</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.953366759641</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1399.536196722681</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1171.546645824663</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.7540666811332</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.3345878491255</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367897</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,58 +5740,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3226.019303113302</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4507.978318053499</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4218.903091397697</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3964.21860319181</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3674.801433154849</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3446.811882256832</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3226.019303113302</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5995,10 +5995,10 @@
         <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6007,7 +6007,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6022,7 +6022,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6068,19 +6068,19 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.3544215660705</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C25" t="n">
-        <v>612.4182386381636</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,34 +6208,34 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192667</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,10 +6244,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6423,13 +6423,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1399.536196722681</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.7540666811332</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
@@ -6472,19 +6472,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6493,7 +6493,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6545,25 +6545,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6600,22 +6600,22 @@
         <v>695.5020655703114</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424045</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300688</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111708</v>
@@ -6712,13 +6712,13 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6727,7 +6727,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
@@ -6736,16 +6736,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400702</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="D34" t="n">
-        <v>376.4492432300688</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="E34" t="n">
-        <v>376.4492432300688</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="F34" t="n">
-        <v>376.4492432300688</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="G34" t="n">
-        <v>209.2531439449487</v>
+        <v>177.7213185270429</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6955,10 +6955,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398594</v>
@@ -6973,16 +6973,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189239</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>753.309241249041</v>
       </c>
     </row>
     <row r="38">
@@ -7162,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7198,13 +7198,13 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466574</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.843151638089</v>
+        <v>779.6143379232844</v>
       </c>
       <c r="C40" t="n">
-        <v>572.9069687101821</v>
+        <v>779.6143379232844</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232844</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408912</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683287</v>
+        <v>779.6143379232844</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7402,13 +7402,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7417,31 +7417,31 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7450,13 +7450,13 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.5276345711973</v>
+        <v>869.9745311434699</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711973</v>
+        <v>701.0383482155628</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381642</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>464.505145055771</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052218</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.968678544967</v>
+        <v>1272.41557511724</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.176099401437</v>
+        <v>1051.62299597371</v>
       </c>
     </row>
     <row r="44">
@@ -7630,67 +7630,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.050829008590881</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.050829008611572</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518814</v>
+        <v>60.60994937518635</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789363717</v>
+        <v>2.123866789362296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.84203171541307</v>
       </c>
       <c r="M3" t="n">
-        <v>71.23287092340013</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>26.60916079202315</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>45.76488231024547</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-4.321857195429865e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>31.77834493961095</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>6.176967258618276</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>186.3242343895917</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="E19" t="n">
-        <v>126.9182872993602</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>115.3527467088718</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>13.30196929556004</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.79952661609433</v>
+        <v>144.6341900408525</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>252.6994810997135</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>32.15184655856211</v>
+        <v>83.2711496294425</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.2784330767823</v>
+        <v>57.22910392194366</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.1491633157412</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194349</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D40" t="n">
-        <v>126.5688841976862</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>83.27114962944466</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>60.88156453658792</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>115.4620467826927</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>38.59775584152629</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>6.310863011584871</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>626552.5157388764</v>
+        <v>626552.5157388757</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>630230.9679796454</v>
+        <v>630230.9679796455</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612679.2773476524</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26365,37 +26365,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163055</v>
+        <v>679693.2761163133</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475390025566</v>
+        <v>373.9475389952922</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059433</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>1.277552590701297e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491391</v>
+        <v>68959.93717491468</v>
       </c>
       <c r="K3" t="n">
-        <v>38.5763239565595</v>
+        <v>38.5763239558143</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.6461375698</v>
+        <v>95382.64613756967</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>1.039422516311918e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077629</v>
+        <v>246846.0156077611</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731937</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731969</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731849</v>
       </c>
       <c r="M4" t="n">
+        <v>8117.312426731849</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8117.312426731862</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8117.312426731807</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731934</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.31242673194</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426731975</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360344</v>
+        <v>63030.89693360378</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168528.4187933889</v>
+        <v>-168528.4187933952</v>
       </c>
       <c r="C6" t="n">
-        <v>510866.1517227832</v>
+        <v>510866.1517227905</v>
       </c>
       <c r="D6" t="n">
-        <v>202657.6333566314</v>
+        <v>202657.6333566316</v>
       </c>
       <c r="E6" t="n">
-        <v>190421.315814821</v>
+        <v>190073.9365604641</v>
       </c>
       <c r="F6" t="n">
-        <v>697906.757439367</v>
+        <v>697559.3781850103</v>
       </c>
       <c r="G6" t="n">
-        <v>697906.757439367</v>
+        <v>697559.37818501</v>
       </c>
       <c r="H6" t="n">
-        <v>697906.757439367</v>
+        <v>697559.37818501</v>
       </c>
       <c r="I6" t="n">
-        <v>697906.7574393672</v>
+        <v>697559.37818501</v>
       </c>
       <c r="J6" t="n">
-        <v>628946.8202644531</v>
+        <v>628599.4410100954</v>
       </c>
       <c r="K6" t="n">
-        <v>697868.1811154103</v>
+        <v>697520.8018610547</v>
       </c>
       <c r="L6" t="n">
-        <v>602524.111301797</v>
+        <v>602176.7320474405</v>
       </c>
       <c r="M6" t="n">
-        <v>565299.4637104406</v>
+        <v>564952.0844560836</v>
       </c>
       <c r="N6" t="n">
-        <v>697906.757439367</v>
+        <v>697559.3781850103</v>
       </c>
       <c r="O6" t="n">
-        <v>697906.7574393674</v>
+        <v>697559.3781850105</v>
       </c>
       <c r="P6" t="n">
-        <v>697906.7574393668</v>
+        <v>697559.3781850098</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726852</v>
+        <v>613.6975324726923</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989952</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>1.299278145389897e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726852</v>
+        <v>613.6975324726923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967930256</v>
+        <v>0.3574812967860908</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.0098783480607</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989952</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025109152</v>
+        <v>0.1498878025079762</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989952</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025106443</v>
+        <v>0.1498878025077488</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989952</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025109152</v>
+        <v>0.1498878025079762</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.462723076317</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.7088995720094</v>
       </c>
       <c r="D2" t="n">
-        <v>91.11904942168775</v>
+        <v>236.9039447649788</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>143.3120535427133</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>149.2716195574557</v>
-      </c>
       <c r="H2" t="n">
-        <v>50.64435824064778</v>
+        <v>314.2083504396427</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587348</v>
+        <v>115.3620237587337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.80044136023</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554914</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482828471418</v>
@@ -27475,10 +27475,10 @@
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928086</v>
+        <v>89.74104957632295</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225866</v>
+        <v>43.94827785225814</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072487</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017452</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802707</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545380905306</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>76.49451349933122</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3878907573037</v>
+        <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597232</v>
+        <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404863</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.32052086282155</v>
+        <v>127.5335881704492</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328716</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2171002436559</v>
+        <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586656647723</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>78.70117979465442</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.4545921487987</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27669,16 +27669,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>136.6720035995079</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>37.10259796991716</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>177.4358965225434</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>58.15577358845545</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>95.54179552472891</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>208.2038673781248</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.1262323924652</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W10" t="n">
-        <v>199.6292940004791</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.468526220540144e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29286,13 +29286,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.468526220540144e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29754,19 +29754,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-9.964916947489631e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.299278145389897e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.733724275254644e-12</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
     </row>
     <row r="44">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46712575868416</v>
+        <v>2.467125758684188</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612416</v>
+        <v>25.26645167612445</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167116</v>
+        <v>95.11386581167226</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611199</v>
+        <v>209.3942148611223</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262204</v>
+        <v>313.827648226224</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635509</v>
+        <v>389.3309481635554</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745503</v>
+        <v>433.2056958745553</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364117</v>
+        <v>440.2154169364168</v>
       </c>
       <c r="O2" t="n">
-        <v>415.682935173496</v>
+        <v>415.6829351735008</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059808</v>
+        <v>354.7757680059849</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731043</v>
+        <v>266.4218267731073</v>
       </c>
       <c r="R2" t="n">
-        <v>154.975588438944</v>
+        <v>154.9755884389458</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601535</v>
+        <v>56.21962822601599</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300863991</v>
+        <v>10.79984300864004</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947328</v>
+        <v>0.197370060694735</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752568</v>
+        <v>1.320028654752583</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721559</v>
+        <v>12.74869779721574</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915641</v>
+        <v>45.44835499915693</v>
       </c>
       <c r="J3" t="n">
-        <v>124.713759877303</v>
+        <v>124.7137598773044</v>
       </c>
       <c r="K3" t="n">
-        <v>213.155679745725</v>
+        <v>213.1556797457275</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628329</v>
+        <v>286.6141164628362</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976134</v>
+        <v>334.4651551976173</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235638</v>
+        <v>343.3174526235678</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419411</v>
+        <v>314.0683966419447</v>
       </c>
       <c r="P3" t="n">
-        <v>252.067577064111</v>
+        <v>252.0675770641139</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592928</v>
+        <v>168.5004998592947</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191827</v>
+        <v>81.9575685819192</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209264</v>
+        <v>24.51895330209292</v>
       </c>
       <c r="T3" t="n">
-        <v>5.32064181455092</v>
+        <v>5.320641814550982</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424794</v>
+        <v>0.08684399044424894</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508121</v>
+        <v>1.106667681508134</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135845</v>
+        <v>9.839281750135958</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753513</v>
+        <v>33.28051536753551</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262414</v>
+        <v>78.24140508262504</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606707</v>
+        <v>128.5746633606722</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943983</v>
+        <v>164.5313023944002</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840411</v>
+        <v>173.4751893840431</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166019</v>
+        <v>169.3503371166039</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735297</v>
+        <v>156.4224464735315</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707639</v>
+        <v>133.8464257707655</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337547</v>
+        <v>92.66832740337654</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320671967</v>
+        <v>49.75980320672024</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410061</v>
+        <v>19.28619950410083</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625606</v>
+        <v>4.72848918462566</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862484</v>
+        <v>0.06036369171862553</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>388.514013929771</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>432.1946015714836</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>624.1318526922785</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32788,10 +32788,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>324.9782573297443</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,34 +33022,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,16 +33496,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,16 +33733,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33970,13 +33970,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>308.1572428165614</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,16 +34444,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443362</v>
+        <v>29.39913934302689</v>
       </c>
       <c r="K2" t="n">
-        <v>93.7377971812399</v>
+        <v>93.73779718124348</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935636</v>
+        <v>153.5645331935681</v>
       </c>
       <c r="M2" t="n">
-        <v>203.9102916558892</v>
+        <v>202.8594626472825</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398208</v>
+        <v>210.8023533398259</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518093</v>
+        <v>185.5847237518141</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507113</v>
+        <v>123.5427722507154</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865479</v>
+        <v>44.1161368986578</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136603</v>
+        <v>75.3142407713685</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829587</v>
+        <v>245.9017683983751</v>
       </c>
       <c r="M3" t="n">
-        <v>263.5639921989952</v>
+        <v>192.3311212755989</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402305</v>
+        <v>211.9757405402345</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974967</v>
+        <v>171.4721521975002</v>
       </c>
       <c r="P3" t="n">
-        <v>144.702330441804</v>
+        <v>118.0931696497837</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327126</v>
+        <v>28.51872577327319</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347879</v>
+        <v>106.3051715347894</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547144</v>
+        <v>192.1213276547163</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458817</v>
+        <v>213.0590663458837</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958305</v>
+        <v>213.4825094958325</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875694</v>
+        <v>181.0075743875712</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356574</v>
+        <v>131.124985035659</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681086</v>
+        <v>6.506284151682152</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572286</v>
+        <v>245.5483596572285</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>343.4452429480957</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>504.1681401741873</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>245.9177694853266</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>290.0605676494653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>481.5356082478341</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>187.1368183553853</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>263.67989750701</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
         <v>735.300110790295</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>165.5609983721169</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
